--- a/public/data.xlsx
+++ b/public/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\satech-migrate\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018AE78D-BF6E-4F30-A98B-43FF6E118D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B081ED0-CE69-40F0-8E66-642310EED321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{8FF39998-5C45-4EC1-B2D0-EE8FF84782DA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8FF39998-5C45-4EC1-B2D0-EE8FF84782DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Serv. Gen." sheetId="7" r:id="rId1"/>
@@ -1264,6 +1264,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1274,24 +1292,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3302,1548 +3302,1546 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08AD287D-FCF0-4B75-B842-665A2D480DF7}">
   <dimension ref="A1:C140"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="33" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="34" t="s">
         <v>140</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="35" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="34" t="s">
         <v>140</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="35" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="34" t="s">
         <v>140</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="35" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="34" t="s">
         <v>140</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="35" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="34" t="s">
         <v>140</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="35" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="34" t="s">
         <v>140</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="35" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="34" t="s">
         <v>138</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="35" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="34" t="s">
         <v>138</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="35" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="34" t="s">
         <v>138</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="35" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="34" t="s">
         <v>138</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="35" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="34" t="s">
         <v>138</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="35" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="34" t="s">
         <v>138</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="35" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="34" t="s">
         <v>138</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="35" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="34" t="s">
         <v>138</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="35" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="34" t="s">
         <v>138</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="35" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="34" t="s">
         <v>138</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="35" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="34" t="s">
         <v>138</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="35" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="34" t="s">
         <v>138</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="35" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="34" t="s">
         <v>138</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="35" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="34" t="s">
         <v>193</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="35" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="34" t="s">
         <v>193</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="35" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="34" t="s">
         <v>193</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="35" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="34" t="s">
         <v>193</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="35" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="34" t="s">
         <v>193</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="35" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="34" t="s">
         <v>193</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="35" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="34" t="s">
         <v>123</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="35" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="34" t="s">
         <v>123</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="35" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="34" t="s">
         <v>123</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="35" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="34" t="s">
         <v>123</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="35" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="34" t="s">
         <v>123</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="35" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="34" t="s">
         <v>123</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="35" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="35" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="35" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="34" t="s">
         <v>115</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="35" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="34" t="s">
         <v>115</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="35" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="34" t="s">
         <v>115</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="35" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="34" t="s">
         <v>115</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="35" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="34" t="s">
         <v>115</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="39" t="s">
+      <c r="C39" s="35" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="34" t="s">
         <v>115</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="39" t="s">
+      <c r="C40" s="35" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="34" t="s">
         <v>115</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="35" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="34" t="s">
         <v>115</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="39" t="s">
+      <c r="C42" s="35" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="34" t="s">
         <v>115</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="39" t="s">
+      <c r="C43" s="35" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="34" t="s">
         <v>115</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="39" t="s">
+      <c r="C44" s="35" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="34" t="s">
         <v>115</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="39" t="s">
+      <c r="C45" s="35" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="38" t="s">
+      <c r="A46" s="34" t="s">
         <v>115</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="39" t="s">
+      <c r="C46" s="35" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="34" t="s">
         <v>115</v>
       </c>
       <c r="B47" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="39" t="s">
+      <c r="C47" s="35" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="34" t="s">
         <v>115</v>
       </c>
       <c r="B48" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="39" t="s">
+      <c r="C48" s="35" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="38" t="s">
+      <c r="A49" s="34" t="s">
         <v>115</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="39" t="s">
+      <c r="C49" s="35" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="38" t="s">
+      <c r="A50" s="34" t="s">
         <v>115</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="35" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="38" t="s">
+      <c r="A51" s="34" t="s">
         <v>115</v>
       </c>
       <c r="B51" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="39" t="s">
+      <c r="C51" s="35" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="38" t="s">
+      <c r="A52" s="34" t="s">
         <v>115</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="39" t="s">
+      <c r="C52" s="35" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="38" t="s">
+      <c r="A53" s="34" t="s">
         <v>115</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="39" t="s">
+      <c r="C53" s="35" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="38" t="s">
+      <c r="A54" s="34" t="s">
         <v>115</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C54" s="39" t="s">
+      <c r="C54" s="35" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="38" t="s">
+      <c r="A55" s="34" t="s">
         <v>115</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C55" s="39" t="s">
+      <c r="C55" s="35" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="38" t="s">
+      <c r="A56" s="34" t="s">
         <v>115</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="39" t="s">
+      <c r="C56" s="35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="38" t="s">
+      <c r="A57" s="34" t="s">
         <v>115</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C57" s="39" t="s">
+      <c r="C57" s="35" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="38" t="s">
+      <c r="A58" s="34" t="s">
         <v>115</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="39" t="s">
+      <c r="C58" s="35" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="38" t="s">
+      <c r="A59" s="34" t="s">
         <v>115</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C59" s="39" t="s">
+      <c r="C59" s="35" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="38" t="s">
+      <c r="A60" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="B60" s="40" t="s">
+      <c r="B60" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="39" t="s">
+      <c r="C60" s="35" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="38" t="s">
+      <c r="A61" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="B61" s="40" t="s">
+      <c r="B61" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C61" s="39" t="s">
+      <c r="C61" s="35" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="38" t="s">
+      <c r="A62" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="B62" s="40" t="s">
+      <c r="B62" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C62" s="39" t="s">
+      <c r="C62" s="35" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="38" t="s">
+      <c r="A63" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="B63" s="40" t="s">
+      <c r="B63" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="39" t="s">
+      <c r="C63" s="35" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="38" t="s">
+      <c r="A64" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="B64" s="40" t="s">
+      <c r="B64" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C64" s="39" t="s">
+      <c r="C64" s="35" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="38" t="s">
+      <c r="A65" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="B65" s="40" t="s">
+      <c r="B65" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="39" t="s">
+      <c r="C65" s="35" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="38" t="s">
+      <c r="A66" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="B66" s="40" t="s">
+      <c r="B66" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="39" t="s">
+      <c r="C66" s="35" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="38" t="s">
+      <c r="A67" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="B67" s="40" t="s">
+      <c r="B67" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C67" s="39" t="s">
+      <c r="C67" s="35" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="38" t="s">
+      <c r="A68" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C68" s="39" t="s">
+      <c r="C68" s="35" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="38" t="s">
+      <c r="A69" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="39" t="s">
+      <c r="C69" s="35" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="38" t="s">
+      <c r="A70" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C70" s="39" t="s">
+      <c r="C70" s="35" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="38" t="s">
+      <c r="A71" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="39" t="s">
+      <c r="C71" s="35" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="38" t="s">
+      <c r="A72" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C72" s="39" t="s">
+      <c r="C72" s="35" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="38" t="s">
+      <c r="A73" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B73" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C73" s="39" t="s">
+      <c r="C73" s="35" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="38" t="s">
+      <c r="A74" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C74" s="39" t="s">
+      <c r="C74" s="35" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="38" t="s">
+      <c r="A75" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B75" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C75" s="39" t="s">
+      <c r="C75" s="35" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="38" t="s">
+      <c r="A76" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C76" s="39" t="s">
+      <c r="C76" s="35" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="38" t="s">
+      <c r="A77" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C77" s="39" t="s">
+      <c r="C77" s="35" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="38" t="s">
+      <c r="A78" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C78" s="39" t="s">
+      <c r="C78" s="35" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="38" t="s">
+      <c r="A79" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B79" s="40" t="s">
+      <c r="B79" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="39" t="s">
+      <c r="C79" s="35" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="38" t="s">
+      <c r="A80" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B80" s="40" t="s">
+      <c r="B80" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C80" s="39" t="s">
+      <c r="C80" s="35" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="38" t="s">
+      <c r="A81" s="34" t="s">
         <v>61</v>
       </c>
       <c r="B81" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C81" s="39" t="s">
+      <c r="C81" s="35" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="38" t="s">
+      <c r="A82" s="34" t="s">
         <v>61</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C82" s="39" t="s">
+      <c r="C82" s="35" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="38" t="s">
+      <c r="A83" s="34" t="s">
         <v>61</v>
       </c>
       <c r="B83" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C83" s="39" t="s">
+      <c r="C83" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="38" t="s">
+      <c r="A84" s="34" t="s">
         <v>61</v>
       </c>
       <c r="B84" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C84" s="39" t="s">
+      <c r="C84" s="35" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="38" t="s">
+      <c r="A85" s="34" t="s">
         <v>61</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C85" s="39" t="s">
+      <c r="C85" s="35" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="38" t="s">
+      <c r="A86" s="34" t="s">
         <v>61</v>
       </c>
       <c r="B86" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C86" s="39" t="s">
+      <c r="C86" s="35" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="38" t="s">
+      <c r="A87" s="34" t="s">
         <v>61</v>
       </c>
       <c r="B87" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C87" s="39" t="s">
+      <c r="C87" s="35" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="38" t="s">
+      <c r="A88" s="34" t="s">
         <v>61</v>
       </c>
       <c r="B88" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C88" s="39" t="s">
+      <c r="C88" s="35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="38" t="s">
+      <c r="A89" s="34" t="s">
         <v>61</v>
       </c>
       <c r="B89" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C89" s="39" t="s">
+      <c r="C89" s="35" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="38" t="s">
+      <c r="A90" s="34" t="s">
         <v>61</v>
       </c>
       <c r="B90" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C90" s="39" t="s">
+      <c r="C90" s="35" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="38" t="s">
+      <c r="A91" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B91" s="40" t="s">
+      <c r="B91" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C91" s="39" t="s">
+      <c r="C91" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="38" t="s">
+      <c r="A92" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B92" s="40" t="s">
+      <c r="B92" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C92" s="39" t="s">
+      <c r="C92" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="38" t="s">
+      <c r="A93" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B93" s="40" t="s">
+      <c r="B93" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C93" s="39" t="s">
+      <c r="C93" s="35" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="38" t="s">
+      <c r="A94" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B94" s="40" t="s">
+      <c r="B94" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C94" s="39" t="s">
+      <c r="C94" s="35" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="38" t="s">
+      <c r="A95" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B95" s="40" t="s">
+      <c r="B95" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C95" s="39" t="s">
+      <c r="C95" s="35" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="38" t="s">
+      <c r="A96" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B96" s="40" t="s">
+      <c r="B96" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C96" s="39" t="s">
+      <c r="C96" s="35" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="38" t="s">
+      <c r="A97" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B97" s="40" t="s">
+      <c r="B97" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C97" s="39" t="s">
+      <c r="C97" s="35" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="38" t="s">
+      <c r="A98" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B98" s="40" t="s">
+      <c r="B98" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C98" s="39" t="s">
+      <c r="C98" s="35" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="38" t="s">
+      <c r="A99" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B99" s="40" t="s">
+      <c r="B99" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C99" s="39" t="s">
+      <c r="C99" s="35" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="38" t="s">
+      <c r="A100" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="B100" s="40" t="s">
+      <c r="B100" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C100" s="39" t="s">
+      <c r="C100" s="35" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="38" t="s">
+      <c r="A101" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="B101" s="40" t="s">
+      <c r="B101" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C101" s="39" t="s">
+      <c r="C101" s="35" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="38" t="s">
+      <c r="A102" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="B102" s="40" t="s">
+      <c r="B102" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C102" s="39" t="s">
+      <c r="C102" s="35" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="38" t="s">
+      <c r="A103" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="B103" s="40" t="s">
+      <c r="B103" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C103" s="39" t="s">
+      <c r="C103" s="35" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="38" t="s">
+      <c r="A104" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B104" s="40" t="s">
+      <c r="B104" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C104" s="39" t="s">
+      <c r="C104" s="35" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="38" t="s">
+      <c r="A105" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B105" s="40" t="s">
+      <c r="B105" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C105" s="39" t="s">
+      <c r="C105" s="35" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="38" t="s">
+      <c r="A106" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B106" s="40" t="s">
+      <c r="B106" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C106" s="39" t="s">
+      <c r="C106" s="35" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="38" t="s">
+      <c r="A107" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B107" s="40" t="s">
+      <c r="B107" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C107" s="39" t="s">
+      <c r="C107" s="35" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="38" t="s">
+      <c r="A108" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B108" s="40" t="s">
+      <c r="B108" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C108" s="39" t="s">
+      <c r="C108" s="35" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="38" t="s">
+      <c r="A109" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B109" s="40" t="s">
+      <c r="B109" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C109" s="39" t="s">
+      <c r="C109" s="35" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="38" t="s">
+      <c r="A110" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B110" s="40" t="s">
+      <c r="B110" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C110" s="39" t="s">
+      <c r="C110" s="35" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="38" t="s">
+      <c r="A111" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B111" s="40" t="s">
+      <c r="B111" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C111" s="39" t="s">
+      <c r="C111" s="35" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="38" t="s">
+      <c r="A112" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B112" s="40" t="s">
+      <c r="B112" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C112" s="39" t="s">
+      <c r="C112" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="38" t="s">
+      <c r="A113" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B113" s="40" t="s">
+      <c r="B113" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C113" s="39" t="s">
+      <c r="C113" s="35" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="38" t="s">
+      <c r="A114" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B114" s="40" t="s">
+      <c r="B114" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C114" s="39" t="s">
+      <c r="C114" s="35" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="38" t="s">
+      <c r="A115" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B115" s="40" t="s">
+      <c r="B115" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C115" s="39" t="s">
+      <c r="C115" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="38" t="s">
+      <c r="A116" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B116" s="40" t="s">
+      <c r="B116" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C116" s="39" t="s">
+      <c r="C116" s="35" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="38" t="s">
+      <c r="A117" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B117" s="40" t="s">
+      <c r="B117" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C117" s="39" t="s">
+      <c r="C117" s="35" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="38" t="s">
+      <c r="A118" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B118" s="40" t="s">
+      <c r="B118" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C118" s="39" t="s">
+      <c r="C118" s="35" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="38" t="s">
+      <c r="A119" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B119" s="40" t="s">
+      <c r="B119" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C119" s="39" t="s">
+      <c r="C119" s="35" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="38" t="s">
+      <c r="A120" s="34" t="s">
         <v>167</v>
       </c>
       <c r="B120" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C120" s="39" t="s">
+      <c r="C120" s="35" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="38" t="s">
+      <c r="A121" s="34" t="s">
         <v>167</v>
       </c>
       <c r="B121" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C121" s="39" t="s">
+      <c r="C121" s="35" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="38" t="s">
+      <c r="A122" s="34" t="s">
         <v>167</v>
       </c>
       <c r="B122" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C122" s="39" t="s">
+      <c r="C122" s="35" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="38" t="s">
+      <c r="A123" s="34" t="s">
         <v>167</v>
       </c>
       <c r="B123" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C123" s="39" t="s">
+      <c r="C123" s="35" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="38" t="s">
+      <c r="A124" s="34" t="s">
         <v>167</v>
       </c>
       <c r="B124" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C124" s="39" t="s">
+      <c r="C124" s="35" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="38" t="s">
+      <c r="A125" s="34" t="s">
         <v>167</v>
       </c>
       <c r="B125" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C125" s="39" t="s">
+      <c r="C125" s="35" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="38" t="s">
+      <c r="A126" s="34" t="s">
         <v>167</v>
       </c>
       <c r="B126" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C126" s="39" t="s">
+      <c r="C126" s="35" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="38" t="s">
+      <c r="A127" s="34" t="s">
         <v>167</v>
       </c>
       <c r="B127" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C127" s="39" t="s">
+      <c r="C127" s="35" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="38" t="s">
+      <c r="A128" s="34" t="s">
         <v>167</v>
       </c>
       <c r="B128" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C128" s="39" t="s">
+      <c r="C128" s="35" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="38" t="s">
+      <c r="A129" s="34" t="s">
         <v>167</v>
       </c>
       <c r="B129" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C129" s="39" t="s">
+      <c r="C129" s="35" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="38" t="s">
+      <c r="A130" s="34" t="s">
         <v>204</v>
       </c>
       <c r="B130" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C130" s="39" t="s">
+      <c r="C130" s="35" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="38" t="s">
+      <c r="A131" s="34" t="s">
         <v>204</v>
       </c>
       <c r="B131" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C131" s="39" t="s">
+      <c r="C131" s="35" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="38" t="s">
+      <c r="A132" s="34" t="s">
         <v>204</v>
       </c>
       <c r="B132" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C132" s="39" t="s">
+      <c r="C132" s="35" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="38" t="s">
+      <c r="A133" s="34" t="s">
         <v>204</v>
       </c>
       <c r="B133" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C133" s="39" t="s">
+      <c r="C133" s="35" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="38" t="s">
+      <c r="A134" s="34" t="s">
         <v>204</v>
       </c>
       <c r="B134" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C134" s="39" t="s">
+      <c r="C134" s="35" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="38" t="s">
+      <c r="A135" s="34" t="s">
         <v>204</v>
       </c>
       <c r="B135" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C135" s="39" t="s">
+      <c r="C135" s="35" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="38" t="s">
+      <c r="A136" s="34" t="s">
         <v>204</v>
       </c>
       <c r="B136" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C136" s="39" t="s">
+      <c r="C136" s="35" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="38" t="s">
+      <c r="A137" s="34" t="s">
         <v>204</v>
       </c>
       <c r="B137" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C137" s="39" t="s">
+      <c r="C137" s="35" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="38" t="s">
+      <c r="A138" s="34" t="s">
         <v>204</v>
       </c>
       <c r="B138" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C138" s="39" t="s">
+      <c r="C138" s="35" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="38" t="s">
+      <c r="A139" s="34" t="s">
         <v>204</v>
       </c>
       <c r="B139" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C139" s="39" t="s">
+      <c r="C139" s="35" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="38" t="s">
+      <c r="A140" s="34" t="s">
         <v>204</v>
       </c>
       <c r="B140" s="13" t="s">
@@ -4922,10 +4920,10 @@
       <c r="F5" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="H5" s="32"/>
+      <c r="H5" s="38"/>
       <c r="I5" s="21" t="s">
         <v>282</v>
       </c>
@@ -4954,10 +4952,10 @@
       <c r="F6" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="39" t="s">
         <v>286</v>
       </c>
-      <c r="H6" s="34"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="12" t="s">
         <v>287</v>
       </c>
@@ -5345,6 +5343,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="53606587-4d39-4ccf-9bd2-cae4662b825f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100590BBAA832E0BD48B7AA5E4721ED95FD" ma:contentTypeVersion="6" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="0d7e9a0b7b139aa53836fdc37c5936f5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="53606587-4d39-4ccf-9bd2-cae4662b825f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b302b03715836b7655e3e6eeb6a482ed" ns3:_="">
     <xsd:import namespace="53606587-4d39-4ccf-9bd2-cae4662b825f"/>
@@ -5500,37 +5515,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="53606587-4d39-4ccf-9bd2-cae4662b825f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{948B4286-6FE8-441F-8AE6-72AC07D69A82}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76FA88C4-2022-4050-B22F-B3F77ED6E2E3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="53606587-4d39-4ccf-9bd2-cae4662b825f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5552,9 +5540,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76FA88C4-2022-4050-B22F-B3F77ED6E2E3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{948B4286-6FE8-441F-8AE6-72AC07D69A82}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="53606587-4d39-4ccf-9bd2-cae4662b825f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>